--- a/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb154/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CAC600-33EF-6242-A260-3D68AEDD72EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A485E33-FADB-6B4F-89DB-C21067B8DFE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="1380" windowWidth="25260" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="480" windowWidth="25260" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D107" s="2">
         <v>584066116</v>
